--- a/Income/AVTR_inc.xlsx
+++ b/Income/AVTR_inc.xlsx
@@ -685,16 +685,16 @@
         <v>0.3255</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.323</v>
+        <v>0.3231</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3231</v>
+        <v>0.3232</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.3203</v>
+        <v>0.3204</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3179</v>
+        <v>0.318</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3193</v>
@@ -808,16 +808,16 @@
         <v>0.0081</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0118</v>
+        <v>0.0117</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0225</v>
+        <v>0.0224</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.0371</v>
+        <v>-0.0372</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.0554</v>
+        <v>-0.0555</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>-0.0705</v>
@@ -1173,16 +1173,16 @@
         <v>0.1744</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.1725</v>
+        <v>0.1729</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1707</v>
+        <v>0.1711</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1631</v>
+        <v>0.1635</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1626</v>
+        <v>0.1629</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1617</v>
